--- a/Docs/InterimReport/Gantt Chart.xlsx
+++ b/Docs/InterimReport/Gantt Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitRepos\Uni\Thesis\Docs\InterimReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C6846D-E5DC-4839-888F-11AF2E550DA5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB19AE5-7544-43D3-AAC2-F912874F27DA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
     <definedName name="PeriodInActual">'Project Planner'!A$2=MEDIAN('Project Planner'!A$2,'Project Planner'!$D1,'Project Planner'!$D1+'Project Planner'!$E1-1)</definedName>
     <definedName name="PeriodInPlan">'Project Planner'!A$2=MEDIAN('Project Planner'!A$2,'Project Planner'!$B1,'Project Planner'!$B1+'Project Planner'!$C1-1)</definedName>
     <definedName name="Plan">PeriodInPlan*('Project Planner'!$B1&gt;0)</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Project Planner'!$A$1:$IQ$56</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Project Planner'!$A$1:$IQ$61</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Project Planner'!$2:$2</definedName>
     <definedName name="TitleRegion..BO60">'Project Planner'!$A$2:$A$2</definedName>
   </definedNames>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="207">
   <si>
     <t>ACTIVITY</t>
   </si>
@@ -583,15 +583,9 @@
     <t>Open CV famil</t>
   </si>
   <si>
-    <t>LANE DETECTION</t>
-  </si>
-  <si>
     <t>BACKGROUND AND RESEARCH</t>
   </si>
   <si>
-    <t>GPS CURVE MATCHING</t>
-  </si>
-  <si>
     <t>GPS data analysis</t>
   </si>
   <si>
@@ -629,6 +623,45 @@
   </si>
   <si>
     <t>Distributable package of simulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prototype </t>
+  </si>
+  <si>
+    <t>ROAD DETECTION</t>
+  </si>
+  <si>
+    <t>Intersection detection tests</t>
+  </si>
+  <si>
+    <t>Intersection models tests</t>
+  </si>
+  <si>
+    <t>Intersection detection matching to models</t>
+  </si>
+  <si>
+    <t>Commence agile development</t>
+  </si>
+  <si>
+    <t>Minimum Viable Product</t>
+  </si>
+  <si>
+    <t>Integration of Simulation data flow tests</t>
+  </si>
+  <si>
+    <t>Release candidate polish</t>
+  </si>
+  <si>
+    <t>MAP MATCHING AND NAVIGATION LOCALISATION</t>
+  </si>
+  <si>
+    <t>Refinement</t>
+  </si>
+  <si>
+    <t>Consolodation of output visualisation products</t>
+  </si>
+  <si>
+    <t>AS AT 24 MAY 19</t>
   </si>
 </sst>
 </file>
@@ -983,7 +1016,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1068,9 +1101,6 @@
     <xf numFmtId="0" fontId="11" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1078,6 +1108,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1557,11 +1593,11 @@
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IQ56"/>
+  <dimension ref="A1:IQ61"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A44" sqref="A1:AP44"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AF12" sqref="AF12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1580,6 +1616,9 @@
       <c r="A1" s="21" t="s">
         <v>165</v>
       </c>
+      <c r="B1" s="32" t="s">
+        <v>206</v>
+      </c>
       <c r="F1" s="7" t="s">
         <v>1</v>
       </c>
@@ -1587,67 +1626,67 @@
         <v>13</v>
       </c>
       <c r="I1" s="9"/>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="31"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="30"/>
       <c r="O1" s="10"/>
-      <c r="P1" s="29" t="s">
+      <c r="P1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="31"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="30"/>
       <c r="T1" s="11"/>
-      <c r="U1" s="29" t="s">
+      <c r="U1" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="V1" s="30"/>
-      <c r="W1" s="30"/>
-      <c r="X1" s="31"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="30"/>
       <c r="Y1" s="12"/>
-      <c r="Z1" s="29" t="s">
+      <c r="Z1" s="28" t="s">
         <v>161</v>
       </c>
-      <c r="AA1" s="30"/>
-      <c r="AB1" s="30"/>
-      <c r="AC1" s="30"/>
-      <c r="AD1" s="30"/>
-      <c r="AE1" s="30"/>
-      <c r="AF1" s="31"/>
+      <c r="AA1" s="29"/>
+      <c r="AB1" s="29"/>
+      <c r="AC1" s="29"/>
+      <c r="AD1" s="29"/>
+      <c r="AE1" s="29"/>
+      <c r="AF1" s="30"/>
       <c r="AG1" s="13"/>
-      <c r="AH1" s="29" t="s">
+      <c r="AH1" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="AI1" s="30"/>
-      <c r="AJ1" s="30"/>
-      <c r="AK1" s="30"/>
-      <c r="AL1" s="30"/>
-      <c r="AM1" s="30"/>
-      <c r="AN1" s="30"/>
-      <c r="AO1" s="30"/>
+      <c r="AI1" s="29"/>
+      <c r="AJ1" s="29"/>
+      <c r="AK1" s="29"/>
+      <c r="AL1" s="29"/>
+      <c r="AM1" s="29"/>
+      <c r="AN1" s="29"/>
+      <c r="AO1" s="29"/>
       <c r="AQ1" s="24"/>
     </row>
     <row r="2" spans="1:251" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="31" t="s">
         <v>159</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="31" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="14">
@@ -2387,12 +2426,12 @@
       </c>
     </row>
     <row r="3" spans="1:251" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
       <c r="G3" s="16">
         <v>43521</v>
       </c>
@@ -3224,7 +3263,7 @@
     </row>
     <row r="4" spans="1:251" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B4" s="22">
         <f>MIN(B5:B9)</f>
@@ -5079,20 +5118,20 @@
         <v>2</v>
       </c>
       <c r="C11" s="22">
-        <f>SUM(C12:C15)</f>
+        <f>SUM(C12:C19)</f>
+        <v>18</v>
+      </c>
+      <c r="D11" s="22">
+        <f>MIN(D12:D19)</f>
+        <v>3</v>
+      </c>
+      <c r="E11" s="22">
+        <f>SUM(E12:E19)</f>
         <v>6</v>
-      </c>
-      <c r="D11" s="22">
-        <f>MIN(D12:D15)</f>
-        <v>3</v>
-      </c>
-      <c r="E11" s="22">
-        <f>SUM(E12:E15)</f>
-        <v>4</v>
       </c>
       <c r="F11" s="23">
         <f>(F12*C12+F13*C13+F14*C14)/SUM(C12:C14)</f>
-        <v>0.83333333333333337</v>
+        <v>0.875</v>
       </c>
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
@@ -5613,13 +5652,13 @@
         <v>8</v>
       </c>
       <c r="C13" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" s="1">
         <v>8</v>
       </c>
       <c r="E13" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13" s="5">
         <v>1</v>
@@ -6138,11 +6177,24 @@
       <c r="IQ14" s="19"/>
     </row>
     <row r="15" spans="1:251" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="20"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
+      <c r="A15" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B15" s="3">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>12</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="5">
+        <v>1</v>
+      </c>
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
       <c r="I15" s="15"/>
@@ -6390,28 +6442,14 @@
       <c r="IQ15" s="19"/>
     </row>
     <row r="16" spans="1:251" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="B16" s="22">
-        <f>MIN(B17:B21)</f>
-        <v>3</v>
-      </c>
-      <c r="C16" s="22">
-        <f>SUM(C17:C21)</f>
-        <v>12</v>
-      </c>
-      <c r="D16" s="22">
-        <f>MIN(D17:D21)</f>
-        <v>3</v>
-      </c>
-      <c r="E16" s="22">
-        <f>SUM(E17:E21)</f>
+      <c r="A16" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B16" s="3">
         <v>14</v>
       </c>
-      <c r="F16" s="23">
-        <f>(F17*C17+F18*C18+F19*C19+F20*C20+F21*C21)/SUM(C17:C21)</f>
-        <v>0.58333333333333337</v>
+      <c r="C16" s="1">
+        <v>1</v>
       </c>
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
@@ -6661,22 +6699,13 @@
     </row>
     <row r="17" spans="1:251" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B17" s="1">
-        <v>3</v>
+        <v>200</v>
+      </c>
+      <c r="B17" s="3">
+        <v>14</v>
       </c>
       <c r="C17" s="1">
-        <v>1</v>
-      </c>
-      <c r="D17" s="1">
-        <v>3</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-      <c r="F17" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
@@ -6926,22 +6955,13 @@
     </row>
     <row r="18" spans="1:251" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B18" s="1">
-        <v>3</v>
+        <v>202</v>
+      </c>
+      <c r="B18" s="3">
+        <v>26</v>
       </c>
       <c r="C18" s="1">
-        <v>4</v>
-      </c>
-      <c r="D18" s="1">
-        <v>3</v>
-      </c>
-      <c r="E18" s="1">
-        <v>5</v>
-      </c>
-      <c r="F18" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G18" s="15"/>
       <c r="H18" s="15"/>
@@ -7190,24 +7210,11 @@
       <c r="IQ18" s="19"/>
     </row>
     <row r="19" spans="1:251" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B19" s="1">
-        <v>5</v>
-      </c>
-      <c r="C19" s="1">
-        <v>2</v>
-      </c>
-      <c r="D19" s="1">
-        <v>5</v>
-      </c>
-      <c r="E19" s="1">
-        <v>2</v>
-      </c>
-      <c r="F19" s="5">
-        <v>1</v>
-      </c>
+      <c r="A19" s="20"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
       <c r="G19" s="15"/>
       <c r="H19" s="15"/>
       <c r="I19" s="15"/>
@@ -7455,23 +7462,28 @@
       <c r="IQ19" s="19"/>
     </row>
     <row r="20" spans="1:251" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="B20" s="3">
-        <v>4</v>
-      </c>
-      <c r="C20" s="1">
-        <v>2</v>
-      </c>
-      <c r="D20" s="1">
-        <v>4</v>
-      </c>
-      <c r="E20" s="1">
+      <c r="A20" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="B20" s="22">
+        <f>MIN(B21:B25)</f>
         <v>3</v>
       </c>
-      <c r="F20" s="5">
-        <v>0</v>
+      <c r="C20" s="22">
+        <f>SUM(C21:C25)</f>
+        <v>12</v>
+      </c>
+      <c r="D20" s="22">
+        <f>MIN(D21:D25)</f>
+        <v>3</v>
+      </c>
+      <c r="E20" s="22">
+        <f>SUM(E21:E25)</f>
+        <v>14</v>
+      </c>
+      <c r="F20" s="23">
+        <f>(F21*C21+F22*C22+F23*C23+F24*C24+F25*C25)/SUM(C21:C25)</f>
+        <v>0.58333333333333337</v>
       </c>
       <c r="G20" s="15"/>
       <c r="H20" s="15"/>
@@ -7721,22 +7733,22 @@
     </row>
     <row r="21" spans="1:251" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B21" s="3">
-        <v>7</v>
+        <v>175</v>
+      </c>
+      <c r="B21" s="1">
+        <v>3</v>
       </c>
       <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1">
         <v>3</v>
       </c>
-      <c r="D21" s="1">
-        <v>6</v>
-      </c>
       <c r="E21" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" s="15"/>
       <c r="H21" s="15"/>
@@ -7985,8 +7997,24 @@
       <c r="IQ21" s="19"/>
     </row>
     <row r="22" spans="1:251" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3"/>
+      <c r="A22" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B22" s="1">
+        <v>3</v>
+      </c>
+      <c r="C22" s="1">
+        <v>4</v>
+      </c>
+      <c r="D22" s="1">
+        <v>3</v>
+      </c>
+      <c r="E22" s="1">
+        <v>5</v>
+      </c>
+      <c r="F22" s="5">
+        <v>1</v>
+      </c>
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
       <c r="I22" s="15"/>
@@ -8234,28 +8262,23 @@
       <c r="IQ22" s="19"/>
     </row>
     <row r="23" spans="1:251" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="B23" s="22">
-        <f>MIN(B24:B28)</f>
-        <v>7</v>
-      </c>
-      <c r="C23" s="22">
-        <f>SUM(C24:C28)</f>
-        <v>9</v>
-      </c>
-      <c r="D23" s="22">
-        <f>MIN(D24:D28)</f>
-        <v>7</v>
-      </c>
-      <c r="E23" s="22">
-        <f>SUM(E24:E28)</f>
-        <v>3</v>
-      </c>
-      <c r="F23" s="23">
-        <f>(F24*C24+F25*C25+F26*C26)/SUM(C24:C26)</f>
-        <v>0.5714285714285714</v>
+      <c r="A23" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B23" s="1">
+        <v>5</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2</v>
+      </c>
+      <c r="D23" s="1">
+        <v>5</v>
+      </c>
+      <c r="E23" s="1">
+        <v>2</v>
+      </c>
+      <c r="F23" s="5">
+        <v>1</v>
       </c>
       <c r="G23" s="15"/>
       <c r="H23" s="15"/>
@@ -8505,22 +8528,22 @@
     </row>
     <row r="24" spans="1:251" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B24" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="1">
+        <v>4</v>
+      </c>
+      <c r="E24" s="1">
         <v>3</v>
       </c>
-      <c r="D24" s="1">
-        <v>7</v>
-      </c>
-      <c r="E24" s="1">
-        <v>2</v>
-      </c>
       <c r="F24" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
@@ -8770,22 +8793,22 @@
     </row>
     <row r="25" spans="1:251" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B25" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C25" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D25" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E25" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" s="15"/>
       <c r="H25" s="15"/>
@@ -9034,18 +9057,8 @@
       <c r="IQ25" s="19"/>
     </row>
     <row r="26" spans="1:251" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="B26" s="3">
-        <v>11</v>
-      </c>
-      <c r="C26" s="1">
-        <v>3</v>
-      </c>
-      <c r="F26" s="5">
-        <v>0</v>
-      </c>
+      <c r="A26" s="2"/>
+      <c r="B26" s="3"/>
       <c r="G26" s="15"/>
       <c r="H26" s="15"/>
       <c r="I26" s="15"/>
@@ -9293,17 +9306,28 @@
       <c r="IQ26" s="19"/>
     </row>
     <row r="27" spans="1:251" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="B27" s="3">
-        <v>14</v>
-      </c>
-      <c r="C27" s="1">
-        <v>2</v>
-      </c>
-      <c r="F27" s="5">
-        <v>0</v>
+      <c r="A27" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="B27" s="22">
+        <f>MIN(B28:B32)</f>
+        <v>7</v>
+      </c>
+      <c r="C27" s="22">
+        <f>SUM(C28:C32)</f>
+        <v>13</v>
+      </c>
+      <c r="D27" s="22">
+        <f>MIN(D28:D32)</f>
+        <v>7</v>
+      </c>
+      <c r="E27" s="22">
+        <f>SUM(E28:E32)</f>
+        <v>5</v>
+      </c>
+      <c r="F27" s="23">
+        <f>(F28*C28+F29*C29+F30*C30)/SUM(C28:C30)</f>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
@@ -9552,10 +9576,23 @@
       <c r="IQ27" s="19"/>
     </row>
     <row r="28" spans="1:251" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="3"/>
+      <c r="A28" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B28" s="3">
+        <v>7</v>
+      </c>
+      <c r="C28" s="1">
+        <v>3</v>
+      </c>
+      <c r="D28" s="1">
+        <v>7</v>
+      </c>
+      <c r="E28" s="1">
+        <v>2</v>
+      </c>
       <c r="F28" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
@@ -9804,10 +9841,23 @@
       <c r="IQ28" s="19"/>
     </row>
     <row r="29" spans="1:251" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="3"/>
+      <c r="A29" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B29" s="3">
+        <v>9</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1">
+        <v>8</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
       <c r="F29" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
@@ -10056,9 +10106,23 @@
       <c r="IQ29" s="19"/>
     </row>
     <row r="30" spans="1:251" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
+      <c r="A30" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B30" s="3">
+        <v>11</v>
+      </c>
+      <c r="C30" s="1">
+        <v>3</v>
+      </c>
+      <c r="D30" s="1">
+        <v>11</v>
+      </c>
+      <c r="E30" s="1">
+        <v>2</v>
+      </c>
       <c r="F30" s="5">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="G30" s="15"/>
       <c r="H30" s="15"/>
@@ -10307,28 +10371,17 @@
       <c r="IQ30" s="19"/>
     </row>
     <row r="31" spans="1:251" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="B31" s="22">
-        <f>MIN(B32:B36)</f>
-        <v>3</v>
-      </c>
-      <c r="C31" s="22">
-        <f>SUM(C32:C36)</f>
-        <v>7</v>
-      </c>
-      <c r="D31" s="22">
-        <f>MIN(D32:D36)</f>
-        <v>3</v>
-      </c>
-      <c r="E31" s="22">
-        <f>SUM(E32:E36)</f>
-        <v>7</v>
-      </c>
-      <c r="F31" s="23">
-        <f>(F32*C32+F33*C33+F34*C34)/SUM(C32:C34)</f>
-        <v>0.39999999999999997</v>
+      <c r="A31" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B31" s="3">
+        <v>14</v>
+      </c>
+      <c r="C31" s="1">
+        <v>2</v>
+      </c>
+      <c r="F31" s="5">
+        <v>0</v>
       </c>
       <c r="G31" s="15"/>
       <c r="H31" s="15"/>
@@ -10578,22 +10631,16 @@
     </row>
     <row r="32" spans="1:251" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="B32" s="1">
-        <v>3</v>
+        <v>196</v>
+      </c>
+      <c r="B32" s="3">
+        <v>16</v>
       </c>
       <c r="C32" s="1">
-        <v>1</v>
-      </c>
-      <c r="D32" s="1">
-        <v>3</v>
-      </c>
-      <c r="E32" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F32" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32" s="15"/>
       <c r="H32" s="15"/>
@@ -10842,23 +10889,10 @@
       <c r="IQ32" s="19"/>
     </row>
     <row r="33" spans="1:251" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B33" s="1">
-        <v>10</v>
-      </c>
-      <c r="C33" s="1">
-        <v>6</v>
-      </c>
-      <c r="D33" s="1">
-        <v>8</v>
-      </c>
-      <c r="E33" s="1">
-        <v>6</v>
-      </c>
+      <c r="A33" s="2"/>
+      <c r="B33" s="3"/>
       <c r="F33" s="5">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G33" s="15"/>
       <c r="H33" s="15"/>
@@ -11107,9 +11141,28 @@
       <c r="IQ33" s="19"/>
     </row>
     <row r="34" spans="1:251" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="F34" s="5">
-        <v>0</v>
+      <c r="A34" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="B34" s="22">
+        <f>MIN(B35:B39)</f>
+        <v>3</v>
+      </c>
+      <c r="C34" s="22">
+        <f>SUM(C35:C39)</f>
+        <v>15</v>
+      </c>
+      <c r="D34" s="22">
+        <f>MIN(D35:D39)</f>
+        <v>3</v>
+      </c>
+      <c r="E34" s="22">
+        <f>SUM(E35:E39)</f>
+        <v>7</v>
+      </c>
+      <c r="F34" s="23">
+        <f>(F35*C35+F36*C36+F37*C37)/SUM(C35:C37)</f>
+        <v>0.31111111111111112</v>
       </c>
       <c r="G34" s="15"/>
       <c r="H34" s="15"/>
@@ -11358,9 +11411,23 @@
       <c r="IQ34" s="19"/>
     </row>
     <row r="35" spans="1:251" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
+      <c r="A35" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B35" s="1">
+        <v>3</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1">
+        <v>3</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1</v>
+      </c>
       <c r="F35" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35" s="15"/>
       <c r="H35" s="15"/>
@@ -11609,9 +11676,23 @@
       <c r="IQ35" s="19"/>
     </row>
     <row r="36" spans="1:251" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
+      <c r="A36" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B36" s="1">
+        <v>10</v>
+      </c>
+      <c r="C36" s="1">
+        <v>6</v>
+      </c>
+      <c r="D36" s="1">
+        <v>8</v>
+      </c>
+      <c r="E36" s="1">
+        <v>6</v>
+      </c>
       <c r="F36" s="5">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="G36" s="15"/>
       <c r="H36" s="15"/>
@@ -11860,7 +11941,15 @@
       <c r="IQ36" s="19"/>
     </row>
     <row r="37" spans="1:251" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
+      <c r="A37" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B37" s="1">
+        <v>15</v>
+      </c>
+      <c r="C37" s="1">
+        <v>2</v>
+      </c>
       <c r="F37" s="5">
         <v>0</v>
       </c>
@@ -12111,28 +12200,17 @@
       <c r="IQ37" s="19"/>
     </row>
     <row r="38" spans="1:251" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="22" t="s">
-        <v>189</v>
-      </c>
-      <c r="B38" s="22">
-        <f>MIN(B39:B43)</f>
-        <v>11</v>
-      </c>
-      <c r="C38" s="22">
-        <f>SUM(C39:C43)</f>
-        <v>10</v>
-      </c>
-      <c r="D38" s="22">
-        <f>MIN(D39:D43)</f>
-        <v>11</v>
-      </c>
-      <c r="E38" s="22">
-        <f>SUM(E39:E43)</f>
-        <v>3</v>
-      </c>
-      <c r="F38" s="23">
-        <f>(F39*C39+F40*C40+F41*C41)/SUM(C39:C41)</f>
-        <v>0.6</v>
+      <c r="A38" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B38" s="1">
+        <v>20</v>
+      </c>
+      <c r="C38" s="1">
+        <v>4</v>
+      </c>
+      <c r="F38" s="5">
+        <v>0</v>
       </c>
       <c r="G38" s="15"/>
       <c r="H38" s="15"/>
@@ -12382,22 +12460,16 @@
     </row>
     <row r="39" spans="1:251" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="B39" s="1">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C39" s="1">
         <v>2</v>
       </c>
-      <c r="D39" s="1">
-        <v>11</v>
-      </c>
-      <c r="E39" s="1">
-        <v>2</v>
-      </c>
       <c r="F39" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39" s="15"/>
       <c r="H39" s="15"/>
@@ -12647,22 +12719,13 @@
     </row>
     <row r="40" spans="1:251" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="B40" s="1">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C40" s="1">
-        <v>1</v>
-      </c>
-      <c r="D40" s="1">
-        <v>12</v>
-      </c>
-      <c r="E40" s="1">
-        <v>1</v>
-      </c>
-      <c r="F40" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G40" s="15"/>
       <c r="H40" s="15"/>
@@ -12912,16 +12975,13 @@
     </row>
     <row r="41" spans="1:251" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="B41" s="1">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C41" s="1">
         <v>2</v>
-      </c>
-      <c r="F41" s="5">
-        <v>0</v>
       </c>
       <c r="G41" s="15"/>
       <c r="H41" s="15"/>
@@ -13170,15 +13230,7 @@
       <c r="IQ41" s="19"/>
     </row>
     <row r="42" spans="1:251" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B42" s="1">
-        <v>32</v>
-      </c>
-      <c r="C42" s="1">
-        <v>3</v>
-      </c>
+      <c r="A42" s="2"/>
       <c r="F42" s="5">
         <v>0</v>
       </c>
@@ -13429,17 +13481,28 @@
       <c r="IQ42" s="19"/>
     </row>
     <row r="43" spans="1:251" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="B43" s="1">
-        <v>34</v>
-      </c>
-      <c r="C43" s="1">
-        <v>2</v>
-      </c>
-      <c r="F43" s="5">
-        <v>0</v>
+      <c r="A43" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="B43" s="22">
+        <f>MIN(B44:B48)</f>
+        <v>11</v>
+      </c>
+      <c r="C43" s="22">
+        <f>SUM(C44:C48)</f>
+        <v>10</v>
+      </c>
+      <c r="D43" s="22">
+        <f>MIN(D44:D48)</f>
+        <v>11</v>
+      </c>
+      <c r="E43" s="22">
+        <f>SUM(E44:E48)</f>
+        <v>3</v>
+      </c>
+      <c r="F43" s="23">
+        <f>(F44*C44+F45*C45+F46*C46)/SUM(C44:C46)</f>
+        <v>0.6</v>
       </c>
       <c r="G43" s="15"/>
       <c r="H43" s="15"/>
@@ -13689,16 +13752,22 @@
     </row>
     <row r="44" spans="1:251" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="B44" s="1">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="C44" s="1">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="D44" s="1">
+        <v>11</v>
+      </c>
+      <c r="E44" s="1">
+        <v>2</v>
       </c>
       <c r="F44" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44" s="15"/>
       <c r="H44" s="15"/>
@@ -13947,9 +14016,23 @@
       <c r="IQ44" s="19"/>
     </row>
     <row r="45" spans="1:251" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
+      <c r="A45" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B45" s="1">
+        <v>12</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1</v>
+      </c>
+      <c r="D45" s="1">
+        <v>12</v>
+      </c>
+      <c r="E45" s="1">
+        <v>1</v>
+      </c>
       <c r="F45" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G45" s="15"/>
       <c r="H45" s="15"/>
@@ -13987,7 +14070,7 @@
       <c r="AN45" s="19"/>
       <c r="AO45" s="19"/>
       <c r="AP45" s="19"/>
-      <c r="AQ45" s="19"/>
+      <c r="AQ45" s="27"/>
       <c r="AR45" s="19"/>
       <c r="AS45" s="19"/>
       <c r="AT45" s="19"/>
@@ -14198,7 +14281,15 @@
       <c r="IQ45" s="19"/>
     </row>
     <row r="46" spans="1:251" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
+      <c r="A46" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B46" s="1">
+        <v>32</v>
+      </c>
+      <c r="C46" s="1">
+        <v>2</v>
+      </c>
       <c r="F46" s="5">
         <v>0</v>
       </c>
@@ -14238,7 +14329,7 @@
       <c r="AN46" s="19"/>
       <c r="AO46" s="19"/>
       <c r="AP46" s="19"/>
-      <c r="AQ46" s="19"/>
+      <c r="AQ46" s="27"/>
       <c r="AR46" s="19"/>
       <c r="AS46" s="19"/>
       <c r="AT46" s="19"/>
@@ -14449,7 +14540,15 @@
       <c r="IQ46" s="19"/>
     </row>
     <row r="47" spans="1:251" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
+      <c r="A47" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B47" s="1">
+        <v>32</v>
+      </c>
+      <c r="C47" s="1">
+        <v>3</v>
+      </c>
       <c r="F47" s="5">
         <v>0</v>
       </c>
@@ -14489,7 +14588,7 @@
       <c r="AN47" s="19"/>
       <c r="AO47" s="19"/>
       <c r="AP47" s="19"/>
-      <c r="AQ47" s="19"/>
+      <c r="AQ47" s="27"/>
       <c r="AR47" s="19"/>
       <c r="AS47" s="19"/>
       <c r="AT47" s="19"/>
@@ -14700,7 +14799,15 @@
       <c r="IQ47" s="19"/>
     </row>
     <row r="48" spans="1:251" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
+      <c r="A48" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B48" s="1">
+        <v>34</v>
+      </c>
+      <c r="C48" s="1">
+        <v>2</v>
+      </c>
       <c r="F48" s="5">
         <v>0</v>
       </c>
@@ -14740,7 +14847,7 @@
       <c r="AN48" s="19"/>
       <c r="AO48" s="19"/>
       <c r="AP48" s="19"/>
-      <c r="AQ48" s="19"/>
+      <c r="AQ48" s="27"/>
       <c r="AR48" s="19"/>
       <c r="AS48" s="19"/>
       <c r="AT48" s="19"/>
@@ -14951,7 +15058,15 @@
       <c r="IQ48" s="19"/>
     </row>
     <row r="49" spans="1:251" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
+      <c r="A49" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B49" s="1">
+        <v>30</v>
+      </c>
+      <c r="C49" s="1">
+        <v>4</v>
+      </c>
       <c r="F49" s="5">
         <v>0</v>
       </c>
@@ -14991,7 +15106,7 @@
       <c r="AN49" s="19"/>
       <c r="AO49" s="19"/>
       <c r="AP49" s="19"/>
-      <c r="AQ49" s="19"/>
+      <c r="AQ49" s="27"/>
       <c r="AR49" s="19"/>
       <c r="AS49" s="19"/>
       <c r="AT49" s="19"/>
@@ -16207,7 +16322,6 @@
     </row>
     <row r="54" spans="1:251" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
-      <c r="B54" s="3"/>
       <c r="F54" s="5">
         <v>0</v>
       </c>
@@ -16959,21 +17073,1277 @@
       <c r="IP56" s="19"/>
       <c r="IQ56" s="19"/>
     </row>
+    <row r="57" spans="1:251" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="2"/>
+      <c r="F57" s="5">
+        <v>0</v>
+      </c>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="15"/>
+      <c r="K57" s="15"/>
+      <c r="L57" s="19"/>
+      <c r="M57" s="19"/>
+      <c r="N57" s="19"/>
+      <c r="O57" s="19"/>
+      <c r="P57" s="19"/>
+      <c r="Q57" s="19"/>
+      <c r="R57" s="19"/>
+      <c r="S57" s="19"/>
+      <c r="T57" s="19"/>
+      <c r="U57" s="19"/>
+      <c r="V57" s="19"/>
+      <c r="W57" s="19"/>
+      <c r="X57" s="19"/>
+      <c r="Y57" s="19"/>
+      <c r="Z57" s="19"/>
+      <c r="AA57" s="19"/>
+      <c r="AB57" s="19"/>
+      <c r="AC57" s="19"/>
+      <c r="AD57" s="19"/>
+      <c r="AE57" s="19"/>
+      <c r="AF57" s="19"/>
+      <c r="AG57" s="19"/>
+      <c r="AH57" s="19"/>
+      <c r="AI57" s="19"/>
+      <c r="AJ57" s="19"/>
+      <c r="AK57" s="19"/>
+      <c r="AL57" s="19"/>
+      <c r="AM57" s="19"/>
+      <c r="AN57" s="19"/>
+      <c r="AO57" s="19"/>
+      <c r="AP57" s="19"/>
+      <c r="AQ57" s="19"/>
+      <c r="AR57" s="19"/>
+      <c r="AS57" s="19"/>
+      <c r="AT57" s="19"/>
+      <c r="AU57" s="19"/>
+      <c r="AV57" s="19"/>
+      <c r="AW57" s="19"/>
+      <c r="AX57" s="19"/>
+      <c r="AY57" s="19"/>
+      <c r="AZ57" s="19"/>
+      <c r="BA57" s="19"/>
+      <c r="BB57" s="19"/>
+      <c r="BC57" s="19"/>
+      <c r="BD57" s="19"/>
+      <c r="BE57" s="19"/>
+      <c r="BF57" s="19"/>
+      <c r="BG57" s="19"/>
+      <c r="BH57" s="19"/>
+      <c r="BI57" s="19"/>
+      <c r="BJ57" s="19"/>
+      <c r="BK57" s="19"/>
+      <c r="BL57" s="19"/>
+      <c r="BM57" s="19"/>
+      <c r="BN57" s="19"/>
+      <c r="BO57" s="19"/>
+      <c r="BP57" s="19"/>
+      <c r="BQ57" s="19"/>
+      <c r="BR57" s="19"/>
+      <c r="BS57" s="19"/>
+      <c r="BT57" s="19"/>
+      <c r="BU57" s="19"/>
+      <c r="BV57" s="19"/>
+      <c r="BW57" s="19"/>
+      <c r="BX57" s="19"/>
+      <c r="BY57" s="19"/>
+      <c r="BZ57" s="19"/>
+      <c r="CA57" s="19"/>
+      <c r="CB57" s="19"/>
+      <c r="CC57" s="19"/>
+      <c r="CD57" s="19"/>
+      <c r="CE57" s="19"/>
+      <c r="CF57" s="19"/>
+      <c r="CG57" s="19"/>
+      <c r="CH57" s="19"/>
+      <c r="CI57" s="19"/>
+      <c r="CJ57" s="19"/>
+      <c r="CK57" s="19"/>
+      <c r="CL57" s="19"/>
+      <c r="CM57" s="19"/>
+      <c r="CN57" s="19"/>
+      <c r="CO57" s="19"/>
+      <c r="CP57" s="19"/>
+      <c r="CQ57" s="19"/>
+      <c r="CR57" s="19"/>
+      <c r="CS57" s="19"/>
+      <c r="CT57" s="19"/>
+      <c r="CU57" s="19"/>
+      <c r="CV57" s="19"/>
+      <c r="CW57" s="19"/>
+      <c r="CX57" s="19"/>
+      <c r="CY57" s="19"/>
+      <c r="CZ57" s="19"/>
+      <c r="DA57" s="19"/>
+      <c r="DB57" s="19"/>
+      <c r="DC57" s="19"/>
+      <c r="DD57" s="19"/>
+      <c r="DE57" s="19"/>
+      <c r="DF57" s="19"/>
+      <c r="DG57" s="19"/>
+      <c r="DH57" s="19"/>
+      <c r="DI57" s="19"/>
+      <c r="DJ57" s="19"/>
+      <c r="DK57" s="19"/>
+      <c r="DL57" s="19"/>
+      <c r="DM57" s="19"/>
+      <c r="DN57" s="19"/>
+      <c r="DO57" s="19"/>
+      <c r="DP57" s="19"/>
+      <c r="DQ57" s="19"/>
+      <c r="DR57" s="19"/>
+      <c r="DS57" s="19"/>
+      <c r="DT57" s="19"/>
+      <c r="DU57" s="19"/>
+      <c r="DV57" s="19"/>
+      <c r="DW57" s="19"/>
+      <c r="DX57" s="19"/>
+      <c r="DY57" s="19"/>
+      <c r="DZ57" s="19"/>
+      <c r="EA57" s="19"/>
+      <c r="EB57" s="19"/>
+      <c r="EC57" s="19"/>
+      <c r="ED57" s="19"/>
+      <c r="EE57" s="19"/>
+      <c r="EF57" s="19"/>
+      <c r="EG57" s="19"/>
+      <c r="EH57" s="19"/>
+      <c r="EI57" s="19"/>
+      <c r="EJ57" s="19"/>
+      <c r="EK57" s="19"/>
+      <c r="EL57" s="19"/>
+      <c r="EM57" s="19"/>
+      <c r="EN57" s="19"/>
+      <c r="EO57" s="19"/>
+      <c r="EP57" s="19"/>
+      <c r="EQ57" s="19"/>
+      <c r="ER57" s="19"/>
+      <c r="ES57" s="19"/>
+      <c r="ET57" s="19"/>
+      <c r="EU57" s="19"/>
+      <c r="EV57" s="19"/>
+      <c r="EW57" s="19"/>
+      <c r="EX57" s="19"/>
+      <c r="EY57" s="19"/>
+      <c r="EZ57" s="19"/>
+      <c r="FA57" s="19"/>
+      <c r="FB57" s="19"/>
+      <c r="FC57" s="19"/>
+      <c r="FD57" s="19"/>
+      <c r="FE57" s="19"/>
+      <c r="FF57" s="19"/>
+      <c r="FG57" s="19"/>
+      <c r="FH57" s="19"/>
+      <c r="FI57" s="19"/>
+      <c r="FJ57" s="19"/>
+      <c r="FK57" s="19"/>
+      <c r="FL57" s="19"/>
+      <c r="FM57" s="19"/>
+      <c r="FN57" s="19"/>
+      <c r="FO57" s="19"/>
+      <c r="FP57" s="19"/>
+      <c r="FQ57" s="19"/>
+      <c r="FR57" s="19"/>
+      <c r="FS57" s="19"/>
+      <c r="FT57" s="19"/>
+      <c r="FU57" s="19"/>
+      <c r="FV57" s="19"/>
+      <c r="FW57" s="19"/>
+      <c r="FX57" s="19"/>
+      <c r="FY57" s="19"/>
+      <c r="FZ57" s="19"/>
+      <c r="GA57" s="19"/>
+      <c r="GB57" s="19"/>
+      <c r="GC57" s="19"/>
+      <c r="GD57" s="19"/>
+      <c r="GE57" s="19"/>
+      <c r="GF57" s="19"/>
+      <c r="GG57" s="19"/>
+      <c r="GH57" s="19"/>
+      <c r="GI57" s="19"/>
+      <c r="GJ57" s="19"/>
+      <c r="GK57" s="19"/>
+      <c r="GL57" s="19"/>
+      <c r="GM57" s="19"/>
+      <c r="GN57" s="19"/>
+      <c r="GO57" s="19"/>
+      <c r="GP57" s="19"/>
+      <c r="GQ57" s="19"/>
+      <c r="GR57" s="19"/>
+      <c r="GS57" s="19"/>
+      <c r="GT57" s="19"/>
+      <c r="GU57" s="19"/>
+      <c r="GV57" s="19"/>
+      <c r="GW57" s="19"/>
+      <c r="GX57" s="19"/>
+      <c r="GY57" s="19"/>
+      <c r="GZ57" s="19"/>
+      <c r="HA57" s="19"/>
+      <c r="HB57" s="19"/>
+      <c r="HC57" s="19"/>
+      <c r="HD57" s="19"/>
+      <c r="HE57" s="19"/>
+      <c r="HF57" s="19"/>
+      <c r="HG57" s="19"/>
+      <c r="HH57" s="19"/>
+      <c r="HI57" s="19"/>
+      <c r="HJ57" s="19"/>
+      <c r="HK57" s="19"/>
+      <c r="HL57" s="19"/>
+      <c r="HM57" s="19"/>
+      <c r="HN57" s="19"/>
+      <c r="HO57" s="19"/>
+      <c r="HP57" s="19"/>
+      <c r="HQ57" s="19"/>
+      <c r="HR57" s="19"/>
+      <c r="HS57" s="19"/>
+      <c r="HT57" s="19"/>
+      <c r="HU57" s="19"/>
+      <c r="HV57" s="19"/>
+      <c r="HW57" s="19"/>
+      <c r="HX57" s="19"/>
+      <c r="HY57" s="19"/>
+      <c r="HZ57" s="19"/>
+      <c r="IA57" s="19"/>
+      <c r="IB57" s="19"/>
+      <c r="IC57" s="19"/>
+      <c r="ID57" s="19"/>
+      <c r="IE57" s="19"/>
+      <c r="IF57" s="19"/>
+      <c r="IG57" s="19"/>
+      <c r="IH57" s="19"/>
+      <c r="II57" s="19"/>
+      <c r="IJ57" s="19"/>
+      <c r="IK57" s="19"/>
+      <c r="IL57" s="19"/>
+      <c r="IM57" s="19"/>
+      <c r="IN57" s="19"/>
+      <c r="IO57" s="19"/>
+      <c r="IP57" s="19"/>
+      <c r="IQ57" s="19"/>
+    </row>
+    <row r="58" spans="1:251" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="2"/>
+      <c r="F58" s="5">
+        <v>0</v>
+      </c>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="15"/>
+      <c r="K58" s="15"/>
+      <c r="L58" s="19"/>
+      <c r="M58" s="19"/>
+      <c r="N58" s="19"/>
+      <c r="O58" s="19"/>
+      <c r="P58" s="19"/>
+      <c r="Q58" s="19"/>
+      <c r="R58" s="19"/>
+      <c r="S58" s="19"/>
+      <c r="T58" s="19"/>
+      <c r="U58" s="19"/>
+      <c r="V58" s="19"/>
+      <c r="W58" s="19"/>
+      <c r="X58" s="19"/>
+      <c r="Y58" s="19"/>
+      <c r="Z58" s="19"/>
+      <c r="AA58" s="19"/>
+      <c r="AB58" s="19"/>
+      <c r="AC58" s="19"/>
+      <c r="AD58" s="19"/>
+      <c r="AE58" s="19"/>
+      <c r="AF58" s="19"/>
+      <c r="AG58" s="19"/>
+      <c r="AH58" s="19"/>
+      <c r="AI58" s="19"/>
+      <c r="AJ58" s="19"/>
+      <c r="AK58" s="19"/>
+      <c r="AL58" s="19"/>
+      <c r="AM58" s="19"/>
+      <c r="AN58" s="19"/>
+      <c r="AO58" s="19"/>
+      <c r="AP58" s="19"/>
+      <c r="AQ58" s="19"/>
+      <c r="AR58" s="19"/>
+      <c r="AS58" s="19"/>
+      <c r="AT58" s="19"/>
+      <c r="AU58" s="19"/>
+      <c r="AV58" s="19"/>
+      <c r="AW58" s="19"/>
+      <c r="AX58" s="19"/>
+      <c r="AY58" s="19"/>
+      <c r="AZ58" s="19"/>
+      <c r="BA58" s="19"/>
+      <c r="BB58" s="19"/>
+      <c r="BC58" s="19"/>
+      <c r="BD58" s="19"/>
+      <c r="BE58" s="19"/>
+      <c r="BF58" s="19"/>
+      <c r="BG58" s="19"/>
+      <c r="BH58" s="19"/>
+      <c r="BI58" s="19"/>
+      <c r="BJ58" s="19"/>
+      <c r="BK58" s="19"/>
+      <c r="BL58" s="19"/>
+      <c r="BM58" s="19"/>
+      <c r="BN58" s="19"/>
+      <c r="BO58" s="19"/>
+      <c r="BP58" s="19"/>
+      <c r="BQ58" s="19"/>
+      <c r="BR58" s="19"/>
+      <c r="BS58" s="19"/>
+      <c r="BT58" s="19"/>
+      <c r="BU58" s="19"/>
+      <c r="BV58" s="19"/>
+      <c r="BW58" s="19"/>
+      <c r="BX58" s="19"/>
+      <c r="BY58" s="19"/>
+      <c r="BZ58" s="19"/>
+      <c r="CA58" s="19"/>
+      <c r="CB58" s="19"/>
+      <c r="CC58" s="19"/>
+      <c r="CD58" s="19"/>
+      <c r="CE58" s="19"/>
+      <c r="CF58" s="19"/>
+      <c r="CG58" s="19"/>
+      <c r="CH58" s="19"/>
+      <c r="CI58" s="19"/>
+      <c r="CJ58" s="19"/>
+      <c r="CK58" s="19"/>
+      <c r="CL58" s="19"/>
+      <c r="CM58" s="19"/>
+      <c r="CN58" s="19"/>
+      <c r="CO58" s="19"/>
+      <c r="CP58" s="19"/>
+      <c r="CQ58" s="19"/>
+      <c r="CR58" s="19"/>
+      <c r="CS58" s="19"/>
+      <c r="CT58" s="19"/>
+      <c r="CU58" s="19"/>
+      <c r="CV58" s="19"/>
+      <c r="CW58" s="19"/>
+      <c r="CX58" s="19"/>
+      <c r="CY58" s="19"/>
+      <c r="CZ58" s="19"/>
+      <c r="DA58" s="19"/>
+      <c r="DB58" s="19"/>
+      <c r="DC58" s="19"/>
+      <c r="DD58" s="19"/>
+      <c r="DE58" s="19"/>
+      <c r="DF58" s="19"/>
+      <c r="DG58" s="19"/>
+      <c r="DH58" s="19"/>
+      <c r="DI58" s="19"/>
+      <c r="DJ58" s="19"/>
+      <c r="DK58" s="19"/>
+      <c r="DL58" s="19"/>
+      <c r="DM58" s="19"/>
+      <c r="DN58" s="19"/>
+      <c r="DO58" s="19"/>
+      <c r="DP58" s="19"/>
+      <c r="DQ58" s="19"/>
+      <c r="DR58" s="19"/>
+      <c r="DS58" s="19"/>
+      <c r="DT58" s="19"/>
+      <c r="DU58" s="19"/>
+      <c r="DV58" s="19"/>
+      <c r="DW58" s="19"/>
+      <c r="DX58" s="19"/>
+      <c r="DY58" s="19"/>
+      <c r="DZ58" s="19"/>
+      <c r="EA58" s="19"/>
+      <c r="EB58" s="19"/>
+      <c r="EC58" s="19"/>
+      <c r="ED58" s="19"/>
+      <c r="EE58" s="19"/>
+      <c r="EF58" s="19"/>
+      <c r="EG58" s="19"/>
+      <c r="EH58" s="19"/>
+      <c r="EI58" s="19"/>
+      <c r="EJ58" s="19"/>
+      <c r="EK58" s="19"/>
+      <c r="EL58" s="19"/>
+      <c r="EM58" s="19"/>
+      <c r="EN58" s="19"/>
+      <c r="EO58" s="19"/>
+      <c r="EP58" s="19"/>
+      <c r="EQ58" s="19"/>
+      <c r="ER58" s="19"/>
+      <c r="ES58" s="19"/>
+      <c r="ET58" s="19"/>
+      <c r="EU58" s="19"/>
+      <c r="EV58" s="19"/>
+      <c r="EW58" s="19"/>
+      <c r="EX58" s="19"/>
+      <c r="EY58" s="19"/>
+      <c r="EZ58" s="19"/>
+      <c r="FA58" s="19"/>
+      <c r="FB58" s="19"/>
+      <c r="FC58" s="19"/>
+      <c r="FD58" s="19"/>
+      <c r="FE58" s="19"/>
+      <c r="FF58" s="19"/>
+      <c r="FG58" s="19"/>
+      <c r="FH58" s="19"/>
+      <c r="FI58" s="19"/>
+      <c r="FJ58" s="19"/>
+      <c r="FK58" s="19"/>
+      <c r="FL58" s="19"/>
+      <c r="FM58" s="19"/>
+      <c r="FN58" s="19"/>
+      <c r="FO58" s="19"/>
+      <c r="FP58" s="19"/>
+      <c r="FQ58" s="19"/>
+      <c r="FR58" s="19"/>
+      <c r="FS58" s="19"/>
+      <c r="FT58" s="19"/>
+      <c r="FU58" s="19"/>
+      <c r="FV58" s="19"/>
+      <c r="FW58" s="19"/>
+      <c r="FX58" s="19"/>
+      <c r="FY58" s="19"/>
+      <c r="FZ58" s="19"/>
+      <c r="GA58" s="19"/>
+      <c r="GB58" s="19"/>
+      <c r="GC58" s="19"/>
+      <c r="GD58" s="19"/>
+      <c r="GE58" s="19"/>
+      <c r="GF58" s="19"/>
+      <c r="GG58" s="19"/>
+      <c r="GH58" s="19"/>
+      <c r="GI58" s="19"/>
+      <c r="GJ58" s="19"/>
+      <c r="GK58" s="19"/>
+      <c r="GL58" s="19"/>
+      <c r="GM58" s="19"/>
+      <c r="GN58" s="19"/>
+      <c r="GO58" s="19"/>
+      <c r="GP58" s="19"/>
+      <c r="GQ58" s="19"/>
+      <c r="GR58" s="19"/>
+      <c r="GS58" s="19"/>
+      <c r="GT58" s="19"/>
+      <c r="GU58" s="19"/>
+      <c r="GV58" s="19"/>
+      <c r="GW58" s="19"/>
+      <c r="GX58" s="19"/>
+      <c r="GY58" s="19"/>
+      <c r="GZ58" s="19"/>
+      <c r="HA58" s="19"/>
+      <c r="HB58" s="19"/>
+      <c r="HC58" s="19"/>
+      <c r="HD58" s="19"/>
+      <c r="HE58" s="19"/>
+      <c r="HF58" s="19"/>
+      <c r="HG58" s="19"/>
+      <c r="HH58" s="19"/>
+      <c r="HI58" s="19"/>
+      <c r="HJ58" s="19"/>
+      <c r="HK58" s="19"/>
+      <c r="HL58" s="19"/>
+      <c r="HM58" s="19"/>
+      <c r="HN58" s="19"/>
+      <c r="HO58" s="19"/>
+      <c r="HP58" s="19"/>
+      <c r="HQ58" s="19"/>
+      <c r="HR58" s="19"/>
+      <c r="HS58" s="19"/>
+      <c r="HT58" s="19"/>
+      <c r="HU58" s="19"/>
+      <c r="HV58" s="19"/>
+      <c r="HW58" s="19"/>
+      <c r="HX58" s="19"/>
+      <c r="HY58" s="19"/>
+      <c r="HZ58" s="19"/>
+      <c r="IA58" s="19"/>
+      <c r="IB58" s="19"/>
+      <c r="IC58" s="19"/>
+      <c r="ID58" s="19"/>
+      <c r="IE58" s="19"/>
+      <c r="IF58" s="19"/>
+      <c r="IG58" s="19"/>
+      <c r="IH58" s="19"/>
+      <c r="II58" s="19"/>
+      <c r="IJ58" s="19"/>
+      <c r="IK58" s="19"/>
+      <c r="IL58" s="19"/>
+      <c r="IM58" s="19"/>
+      <c r="IN58" s="19"/>
+      <c r="IO58" s="19"/>
+      <c r="IP58" s="19"/>
+      <c r="IQ58" s="19"/>
+    </row>
+    <row r="59" spans="1:251" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="2"/>
+      <c r="B59" s="3"/>
+      <c r="F59" s="5">
+        <v>0</v>
+      </c>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="15"/>
+      <c r="K59" s="15"/>
+      <c r="L59" s="19"/>
+      <c r="M59" s="19"/>
+      <c r="N59" s="19"/>
+      <c r="O59" s="19"/>
+      <c r="P59" s="19"/>
+      <c r="Q59" s="19"/>
+      <c r="R59" s="19"/>
+      <c r="S59" s="19"/>
+      <c r="T59" s="19"/>
+      <c r="U59" s="19"/>
+      <c r="V59" s="19"/>
+      <c r="W59" s="19"/>
+      <c r="X59" s="19"/>
+      <c r="Y59" s="19"/>
+      <c r="Z59" s="19"/>
+      <c r="AA59" s="19"/>
+      <c r="AB59" s="19"/>
+      <c r="AC59" s="19"/>
+      <c r="AD59" s="19"/>
+      <c r="AE59" s="19"/>
+      <c r="AF59" s="19"/>
+      <c r="AG59" s="19"/>
+      <c r="AH59" s="19"/>
+      <c r="AI59" s="19"/>
+      <c r="AJ59" s="19"/>
+      <c r="AK59" s="19"/>
+      <c r="AL59" s="19"/>
+      <c r="AM59" s="19"/>
+      <c r="AN59" s="19"/>
+      <c r="AO59" s="19"/>
+      <c r="AP59" s="19"/>
+      <c r="AQ59" s="19"/>
+      <c r="AR59" s="19"/>
+      <c r="AS59" s="19"/>
+      <c r="AT59" s="19"/>
+      <c r="AU59" s="19"/>
+      <c r="AV59" s="19"/>
+      <c r="AW59" s="19"/>
+      <c r="AX59" s="19"/>
+      <c r="AY59" s="19"/>
+      <c r="AZ59" s="19"/>
+      <c r="BA59" s="19"/>
+      <c r="BB59" s="19"/>
+      <c r="BC59" s="19"/>
+      <c r="BD59" s="19"/>
+      <c r="BE59" s="19"/>
+      <c r="BF59" s="19"/>
+      <c r="BG59" s="19"/>
+      <c r="BH59" s="19"/>
+      <c r="BI59" s="19"/>
+      <c r="BJ59" s="19"/>
+      <c r="BK59" s="19"/>
+      <c r="BL59" s="19"/>
+      <c r="BM59" s="19"/>
+      <c r="BN59" s="19"/>
+      <c r="BO59" s="19"/>
+      <c r="BP59" s="19"/>
+      <c r="BQ59" s="19"/>
+      <c r="BR59" s="19"/>
+      <c r="BS59" s="19"/>
+      <c r="BT59" s="19"/>
+      <c r="BU59" s="19"/>
+      <c r="BV59" s="19"/>
+      <c r="BW59" s="19"/>
+      <c r="BX59" s="19"/>
+      <c r="BY59" s="19"/>
+      <c r="BZ59" s="19"/>
+      <c r="CA59" s="19"/>
+      <c r="CB59" s="19"/>
+      <c r="CC59" s="19"/>
+      <c r="CD59" s="19"/>
+      <c r="CE59" s="19"/>
+      <c r="CF59" s="19"/>
+      <c r="CG59" s="19"/>
+      <c r="CH59" s="19"/>
+      <c r="CI59" s="19"/>
+      <c r="CJ59" s="19"/>
+      <c r="CK59" s="19"/>
+      <c r="CL59" s="19"/>
+      <c r="CM59" s="19"/>
+      <c r="CN59" s="19"/>
+      <c r="CO59" s="19"/>
+      <c r="CP59" s="19"/>
+      <c r="CQ59" s="19"/>
+      <c r="CR59" s="19"/>
+      <c r="CS59" s="19"/>
+      <c r="CT59" s="19"/>
+      <c r="CU59" s="19"/>
+      <c r="CV59" s="19"/>
+      <c r="CW59" s="19"/>
+      <c r="CX59" s="19"/>
+      <c r="CY59" s="19"/>
+      <c r="CZ59" s="19"/>
+      <c r="DA59" s="19"/>
+      <c r="DB59" s="19"/>
+      <c r="DC59" s="19"/>
+      <c r="DD59" s="19"/>
+      <c r="DE59" s="19"/>
+      <c r="DF59" s="19"/>
+      <c r="DG59" s="19"/>
+      <c r="DH59" s="19"/>
+      <c r="DI59" s="19"/>
+      <c r="DJ59" s="19"/>
+      <c r="DK59" s="19"/>
+      <c r="DL59" s="19"/>
+      <c r="DM59" s="19"/>
+      <c r="DN59" s="19"/>
+      <c r="DO59" s="19"/>
+      <c r="DP59" s="19"/>
+      <c r="DQ59" s="19"/>
+      <c r="DR59" s="19"/>
+      <c r="DS59" s="19"/>
+      <c r="DT59" s="19"/>
+      <c r="DU59" s="19"/>
+      <c r="DV59" s="19"/>
+      <c r="DW59" s="19"/>
+      <c r="DX59" s="19"/>
+      <c r="DY59" s="19"/>
+      <c r="DZ59" s="19"/>
+      <c r="EA59" s="19"/>
+      <c r="EB59" s="19"/>
+      <c r="EC59" s="19"/>
+      <c r="ED59" s="19"/>
+      <c r="EE59" s="19"/>
+      <c r="EF59" s="19"/>
+      <c r="EG59" s="19"/>
+      <c r="EH59" s="19"/>
+      <c r="EI59" s="19"/>
+      <c r="EJ59" s="19"/>
+      <c r="EK59" s="19"/>
+      <c r="EL59" s="19"/>
+      <c r="EM59" s="19"/>
+      <c r="EN59" s="19"/>
+      <c r="EO59" s="19"/>
+      <c r="EP59" s="19"/>
+      <c r="EQ59" s="19"/>
+      <c r="ER59" s="19"/>
+      <c r="ES59" s="19"/>
+      <c r="ET59" s="19"/>
+      <c r="EU59" s="19"/>
+      <c r="EV59" s="19"/>
+      <c r="EW59" s="19"/>
+      <c r="EX59" s="19"/>
+      <c r="EY59" s="19"/>
+      <c r="EZ59" s="19"/>
+      <c r="FA59" s="19"/>
+      <c r="FB59" s="19"/>
+      <c r="FC59" s="19"/>
+      <c r="FD59" s="19"/>
+      <c r="FE59" s="19"/>
+      <c r="FF59" s="19"/>
+      <c r="FG59" s="19"/>
+      <c r="FH59" s="19"/>
+      <c r="FI59" s="19"/>
+      <c r="FJ59" s="19"/>
+      <c r="FK59" s="19"/>
+      <c r="FL59" s="19"/>
+      <c r="FM59" s="19"/>
+      <c r="FN59" s="19"/>
+      <c r="FO59" s="19"/>
+      <c r="FP59" s="19"/>
+      <c r="FQ59" s="19"/>
+      <c r="FR59" s="19"/>
+      <c r="FS59" s="19"/>
+      <c r="FT59" s="19"/>
+      <c r="FU59" s="19"/>
+      <c r="FV59" s="19"/>
+      <c r="FW59" s="19"/>
+      <c r="FX59" s="19"/>
+      <c r="FY59" s="19"/>
+      <c r="FZ59" s="19"/>
+      <c r="GA59" s="19"/>
+      <c r="GB59" s="19"/>
+      <c r="GC59" s="19"/>
+      <c r="GD59" s="19"/>
+      <c r="GE59" s="19"/>
+      <c r="GF59" s="19"/>
+      <c r="GG59" s="19"/>
+      <c r="GH59" s="19"/>
+      <c r="GI59" s="19"/>
+      <c r="GJ59" s="19"/>
+      <c r="GK59" s="19"/>
+      <c r="GL59" s="19"/>
+      <c r="GM59" s="19"/>
+      <c r="GN59" s="19"/>
+      <c r="GO59" s="19"/>
+      <c r="GP59" s="19"/>
+      <c r="GQ59" s="19"/>
+      <c r="GR59" s="19"/>
+      <c r="GS59" s="19"/>
+      <c r="GT59" s="19"/>
+      <c r="GU59" s="19"/>
+      <c r="GV59" s="19"/>
+      <c r="GW59" s="19"/>
+      <c r="GX59" s="19"/>
+      <c r="GY59" s="19"/>
+      <c r="GZ59" s="19"/>
+      <c r="HA59" s="19"/>
+      <c r="HB59" s="19"/>
+      <c r="HC59" s="19"/>
+      <c r="HD59" s="19"/>
+      <c r="HE59" s="19"/>
+      <c r="HF59" s="19"/>
+      <c r="HG59" s="19"/>
+      <c r="HH59" s="19"/>
+      <c r="HI59" s="19"/>
+      <c r="HJ59" s="19"/>
+      <c r="HK59" s="19"/>
+      <c r="HL59" s="19"/>
+      <c r="HM59" s="19"/>
+      <c r="HN59" s="19"/>
+      <c r="HO59" s="19"/>
+      <c r="HP59" s="19"/>
+      <c r="HQ59" s="19"/>
+      <c r="HR59" s="19"/>
+      <c r="HS59" s="19"/>
+      <c r="HT59" s="19"/>
+      <c r="HU59" s="19"/>
+      <c r="HV59" s="19"/>
+      <c r="HW59" s="19"/>
+      <c r="HX59" s="19"/>
+      <c r="HY59" s="19"/>
+      <c r="HZ59" s="19"/>
+      <c r="IA59" s="19"/>
+      <c r="IB59" s="19"/>
+      <c r="IC59" s="19"/>
+      <c r="ID59" s="19"/>
+      <c r="IE59" s="19"/>
+      <c r="IF59" s="19"/>
+      <c r="IG59" s="19"/>
+      <c r="IH59" s="19"/>
+      <c r="II59" s="19"/>
+      <c r="IJ59" s="19"/>
+      <c r="IK59" s="19"/>
+      <c r="IL59" s="19"/>
+      <c r="IM59" s="19"/>
+      <c r="IN59" s="19"/>
+      <c r="IO59" s="19"/>
+      <c r="IP59" s="19"/>
+      <c r="IQ59" s="19"/>
+    </row>
+    <row r="60" spans="1:251" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="2"/>
+      <c r="F60" s="5">
+        <v>0</v>
+      </c>
+      <c r="G60" s="15"/>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="15"/>
+      <c r="K60" s="15"/>
+      <c r="L60" s="19"/>
+      <c r="M60" s="19"/>
+      <c r="N60" s="19"/>
+      <c r="O60" s="19"/>
+      <c r="P60" s="19"/>
+      <c r="Q60" s="19"/>
+      <c r="R60" s="19"/>
+      <c r="S60" s="19"/>
+      <c r="T60" s="19"/>
+      <c r="U60" s="19"/>
+      <c r="V60" s="19"/>
+      <c r="W60" s="19"/>
+      <c r="X60" s="19"/>
+      <c r="Y60" s="19"/>
+      <c r="Z60" s="19"/>
+      <c r="AA60" s="19"/>
+      <c r="AB60" s="19"/>
+      <c r="AC60" s="19"/>
+      <c r="AD60" s="19"/>
+      <c r="AE60" s="19"/>
+      <c r="AF60" s="19"/>
+      <c r="AG60" s="19"/>
+      <c r="AH60" s="19"/>
+      <c r="AI60" s="19"/>
+      <c r="AJ60" s="19"/>
+      <c r="AK60" s="19"/>
+      <c r="AL60" s="19"/>
+      <c r="AM60" s="19"/>
+      <c r="AN60" s="19"/>
+      <c r="AO60" s="19"/>
+      <c r="AP60" s="19"/>
+      <c r="AQ60" s="19"/>
+      <c r="AR60" s="19"/>
+      <c r="AS60" s="19"/>
+      <c r="AT60" s="19"/>
+      <c r="AU60" s="19"/>
+      <c r="AV60" s="19"/>
+      <c r="AW60" s="19"/>
+      <c r="AX60" s="19"/>
+      <c r="AY60" s="19"/>
+      <c r="AZ60" s="19"/>
+      <c r="BA60" s="19"/>
+      <c r="BB60" s="19"/>
+      <c r="BC60" s="19"/>
+      <c r="BD60" s="19"/>
+      <c r="BE60" s="19"/>
+      <c r="BF60" s="19"/>
+      <c r="BG60" s="19"/>
+      <c r="BH60" s="19"/>
+      <c r="BI60" s="19"/>
+      <c r="BJ60" s="19"/>
+      <c r="BK60" s="19"/>
+      <c r="BL60" s="19"/>
+      <c r="BM60" s="19"/>
+      <c r="BN60" s="19"/>
+      <c r="BO60" s="19"/>
+      <c r="BP60" s="19"/>
+      <c r="BQ60" s="19"/>
+      <c r="BR60" s="19"/>
+      <c r="BS60" s="19"/>
+      <c r="BT60" s="19"/>
+      <c r="BU60" s="19"/>
+      <c r="BV60" s="19"/>
+      <c r="BW60" s="19"/>
+      <c r="BX60" s="19"/>
+      <c r="BY60" s="19"/>
+      <c r="BZ60" s="19"/>
+      <c r="CA60" s="19"/>
+      <c r="CB60" s="19"/>
+      <c r="CC60" s="19"/>
+      <c r="CD60" s="19"/>
+      <c r="CE60" s="19"/>
+      <c r="CF60" s="19"/>
+      <c r="CG60" s="19"/>
+      <c r="CH60" s="19"/>
+      <c r="CI60" s="19"/>
+      <c r="CJ60" s="19"/>
+      <c r="CK60" s="19"/>
+      <c r="CL60" s="19"/>
+      <c r="CM60" s="19"/>
+      <c r="CN60" s="19"/>
+      <c r="CO60" s="19"/>
+      <c r="CP60" s="19"/>
+      <c r="CQ60" s="19"/>
+      <c r="CR60" s="19"/>
+      <c r="CS60" s="19"/>
+      <c r="CT60" s="19"/>
+      <c r="CU60" s="19"/>
+      <c r="CV60" s="19"/>
+      <c r="CW60" s="19"/>
+      <c r="CX60" s="19"/>
+      <c r="CY60" s="19"/>
+      <c r="CZ60" s="19"/>
+      <c r="DA60" s="19"/>
+      <c r="DB60" s="19"/>
+      <c r="DC60" s="19"/>
+      <c r="DD60" s="19"/>
+      <c r="DE60" s="19"/>
+      <c r="DF60" s="19"/>
+      <c r="DG60" s="19"/>
+      <c r="DH60" s="19"/>
+      <c r="DI60" s="19"/>
+      <c r="DJ60" s="19"/>
+      <c r="DK60" s="19"/>
+      <c r="DL60" s="19"/>
+      <c r="DM60" s="19"/>
+      <c r="DN60" s="19"/>
+      <c r="DO60" s="19"/>
+      <c r="DP60" s="19"/>
+      <c r="DQ60" s="19"/>
+      <c r="DR60" s="19"/>
+      <c r="DS60" s="19"/>
+      <c r="DT60" s="19"/>
+      <c r="DU60" s="19"/>
+      <c r="DV60" s="19"/>
+      <c r="DW60" s="19"/>
+      <c r="DX60" s="19"/>
+      <c r="DY60" s="19"/>
+      <c r="DZ60" s="19"/>
+      <c r="EA60" s="19"/>
+      <c r="EB60" s="19"/>
+      <c r="EC60" s="19"/>
+      <c r="ED60" s="19"/>
+      <c r="EE60" s="19"/>
+      <c r="EF60" s="19"/>
+      <c r="EG60" s="19"/>
+      <c r="EH60" s="19"/>
+      <c r="EI60" s="19"/>
+      <c r="EJ60" s="19"/>
+      <c r="EK60" s="19"/>
+      <c r="EL60" s="19"/>
+      <c r="EM60" s="19"/>
+      <c r="EN60" s="19"/>
+      <c r="EO60" s="19"/>
+      <c r="EP60" s="19"/>
+      <c r="EQ60" s="19"/>
+      <c r="ER60" s="19"/>
+      <c r="ES60" s="19"/>
+      <c r="ET60" s="19"/>
+      <c r="EU60" s="19"/>
+      <c r="EV60" s="19"/>
+      <c r="EW60" s="19"/>
+      <c r="EX60" s="19"/>
+      <c r="EY60" s="19"/>
+      <c r="EZ60" s="19"/>
+      <c r="FA60" s="19"/>
+      <c r="FB60" s="19"/>
+      <c r="FC60" s="19"/>
+      <c r="FD60" s="19"/>
+      <c r="FE60" s="19"/>
+      <c r="FF60" s="19"/>
+      <c r="FG60" s="19"/>
+      <c r="FH60" s="19"/>
+      <c r="FI60" s="19"/>
+      <c r="FJ60" s="19"/>
+      <c r="FK60" s="19"/>
+      <c r="FL60" s="19"/>
+      <c r="FM60" s="19"/>
+      <c r="FN60" s="19"/>
+      <c r="FO60" s="19"/>
+      <c r="FP60" s="19"/>
+      <c r="FQ60" s="19"/>
+      <c r="FR60" s="19"/>
+      <c r="FS60" s="19"/>
+      <c r="FT60" s="19"/>
+      <c r="FU60" s="19"/>
+      <c r="FV60" s="19"/>
+      <c r="FW60" s="19"/>
+      <c r="FX60" s="19"/>
+      <c r="FY60" s="19"/>
+      <c r="FZ60" s="19"/>
+      <c r="GA60" s="19"/>
+      <c r="GB60" s="19"/>
+      <c r="GC60" s="19"/>
+      <c r="GD60" s="19"/>
+      <c r="GE60" s="19"/>
+      <c r="GF60" s="19"/>
+      <c r="GG60" s="19"/>
+      <c r="GH60" s="19"/>
+      <c r="GI60" s="19"/>
+      <c r="GJ60" s="19"/>
+      <c r="GK60" s="19"/>
+      <c r="GL60" s="19"/>
+      <c r="GM60" s="19"/>
+      <c r="GN60" s="19"/>
+      <c r="GO60" s="19"/>
+      <c r="GP60" s="19"/>
+      <c r="GQ60" s="19"/>
+      <c r="GR60" s="19"/>
+      <c r="GS60" s="19"/>
+      <c r="GT60" s="19"/>
+      <c r="GU60" s="19"/>
+      <c r="GV60" s="19"/>
+      <c r="GW60" s="19"/>
+      <c r="GX60" s="19"/>
+      <c r="GY60" s="19"/>
+      <c r="GZ60" s="19"/>
+      <c r="HA60" s="19"/>
+      <c r="HB60" s="19"/>
+      <c r="HC60" s="19"/>
+      <c r="HD60" s="19"/>
+      <c r="HE60" s="19"/>
+      <c r="HF60" s="19"/>
+      <c r="HG60" s="19"/>
+      <c r="HH60" s="19"/>
+      <c r="HI60" s="19"/>
+      <c r="HJ60" s="19"/>
+      <c r="HK60" s="19"/>
+      <c r="HL60" s="19"/>
+      <c r="HM60" s="19"/>
+      <c r="HN60" s="19"/>
+      <c r="HO60" s="19"/>
+      <c r="HP60" s="19"/>
+      <c r="HQ60" s="19"/>
+      <c r="HR60" s="19"/>
+      <c r="HS60" s="19"/>
+      <c r="HT60" s="19"/>
+      <c r="HU60" s="19"/>
+      <c r="HV60" s="19"/>
+      <c r="HW60" s="19"/>
+      <c r="HX60" s="19"/>
+      <c r="HY60" s="19"/>
+      <c r="HZ60" s="19"/>
+      <c r="IA60" s="19"/>
+      <c r="IB60" s="19"/>
+      <c r="IC60" s="19"/>
+      <c r="ID60" s="19"/>
+      <c r="IE60" s="19"/>
+      <c r="IF60" s="19"/>
+      <c r="IG60" s="19"/>
+      <c r="IH60" s="19"/>
+      <c r="II60" s="19"/>
+      <c r="IJ60" s="19"/>
+      <c r="IK60" s="19"/>
+      <c r="IL60" s="19"/>
+      <c r="IM60" s="19"/>
+      <c r="IN60" s="19"/>
+      <c r="IO60" s="19"/>
+      <c r="IP60" s="19"/>
+      <c r="IQ60" s="19"/>
+    </row>
+    <row r="61" spans="1:251" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="2"/>
+      <c r="F61" s="5">
+        <v>0</v>
+      </c>
+      <c r="G61" s="15"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="15"/>
+      <c r="K61" s="15"/>
+      <c r="L61" s="19"/>
+      <c r="M61" s="19"/>
+      <c r="N61" s="19"/>
+      <c r="O61" s="19"/>
+      <c r="P61" s="19"/>
+      <c r="Q61" s="19"/>
+      <c r="R61" s="19"/>
+      <c r="S61" s="19"/>
+      <c r="T61" s="19"/>
+      <c r="U61" s="19"/>
+      <c r="V61" s="19"/>
+      <c r="W61" s="19"/>
+      <c r="X61" s="19"/>
+      <c r="Y61" s="19"/>
+      <c r="Z61" s="19"/>
+      <c r="AA61" s="19"/>
+      <c r="AB61" s="19"/>
+      <c r="AC61" s="19"/>
+      <c r="AD61" s="19"/>
+      <c r="AE61" s="19"/>
+      <c r="AF61" s="19"/>
+      <c r="AG61" s="19"/>
+      <c r="AH61" s="19"/>
+      <c r="AI61" s="19"/>
+      <c r="AJ61" s="19"/>
+      <c r="AK61" s="19"/>
+      <c r="AL61" s="19"/>
+      <c r="AM61" s="19"/>
+      <c r="AN61" s="19"/>
+      <c r="AO61" s="19"/>
+      <c r="AP61" s="19"/>
+      <c r="AQ61" s="19"/>
+      <c r="AR61" s="19"/>
+      <c r="AS61" s="19"/>
+      <c r="AT61" s="19"/>
+      <c r="AU61" s="19"/>
+      <c r="AV61" s="19"/>
+      <c r="AW61" s="19"/>
+      <c r="AX61" s="19"/>
+      <c r="AY61" s="19"/>
+      <c r="AZ61" s="19"/>
+      <c r="BA61" s="19"/>
+      <c r="BB61" s="19"/>
+      <c r="BC61" s="19"/>
+      <c r="BD61" s="19"/>
+      <c r="BE61" s="19"/>
+      <c r="BF61" s="19"/>
+      <c r="BG61" s="19"/>
+      <c r="BH61" s="19"/>
+      <c r="BI61" s="19"/>
+      <c r="BJ61" s="19"/>
+      <c r="BK61" s="19"/>
+      <c r="BL61" s="19"/>
+      <c r="BM61" s="19"/>
+      <c r="BN61" s="19"/>
+      <c r="BO61" s="19"/>
+      <c r="BP61" s="19"/>
+      <c r="BQ61" s="19"/>
+      <c r="BR61" s="19"/>
+      <c r="BS61" s="19"/>
+      <c r="BT61" s="19"/>
+      <c r="BU61" s="19"/>
+      <c r="BV61" s="19"/>
+      <c r="BW61" s="19"/>
+      <c r="BX61" s="19"/>
+      <c r="BY61" s="19"/>
+      <c r="BZ61" s="19"/>
+      <c r="CA61" s="19"/>
+      <c r="CB61" s="19"/>
+      <c r="CC61" s="19"/>
+      <c r="CD61" s="19"/>
+      <c r="CE61" s="19"/>
+      <c r="CF61" s="19"/>
+      <c r="CG61" s="19"/>
+      <c r="CH61" s="19"/>
+      <c r="CI61" s="19"/>
+      <c r="CJ61" s="19"/>
+      <c r="CK61" s="19"/>
+      <c r="CL61" s="19"/>
+      <c r="CM61" s="19"/>
+      <c r="CN61" s="19"/>
+      <c r="CO61" s="19"/>
+      <c r="CP61" s="19"/>
+      <c r="CQ61" s="19"/>
+      <c r="CR61" s="19"/>
+      <c r="CS61" s="19"/>
+      <c r="CT61" s="19"/>
+      <c r="CU61" s="19"/>
+      <c r="CV61" s="19"/>
+      <c r="CW61" s="19"/>
+      <c r="CX61" s="19"/>
+      <c r="CY61" s="19"/>
+      <c r="CZ61" s="19"/>
+      <c r="DA61" s="19"/>
+      <c r="DB61" s="19"/>
+      <c r="DC61" s="19"/>
+      <c r="DD61" s="19"/>
+      <c r="DE61" s="19"/>
+      <c r="DF61" s="19"/>
+      <c r="DG61" s="19"/>
+      <c r="DH61" s="19"/>
+      <c r="DI61" s="19"/>
+      <c r="DJ61" s="19"/>
+      <c r="DK61" s="19"/>
+      <c r="DL61" s="19"/>
+      <c r="DM61" s="19"/>
+      <c r="DN61" s="19"/>
+      <c r="DO61" s="19"/>
+      <c r="DP61" s="19"/>
+      <c r="DQ61" s="19"/>
+      <c r="DR61" s="19"/>
+      <c r="DS61" s="19"/>
+      <c r="DT61" s="19"/>
+      <c r="DU61" s="19"/>
+      <c r="DV61" s="19"/>
+      <c r="DW61" s="19"/>
+      <c r="DX61" s="19"/>
+      <c r="DY61" s="19"/>
+      <c r="DZ61" s="19"/>
+      <c r="EA61" s="19"/>
+      <c r="EB61" s="19"/>
+      <c r="EC61" s="19"/>
+      <c r="ED61" s="19"/>
+      <c r="EE61" s="19"/>
+      <c r="EF61" s="19"/>
+      <c r="EG61" s="19"/>
+      <c r="EH61" s="19"/>
+      <c r="EI61" s="19"/>
+      <c r="EJ61" s="19"/>
+      <c r="EK61" s="19"/>
+      <c r="EL61" s="19"/>
+      <c r="EM61" s="19"/>
+      <c r="EN61" s="19"/>
+      <c r="EO61" s="19"/>
+      <c r="EP61" s="19"/>
+      <c r="EQ61" s="19"/>
+      <c r="ER61" s="19"/>
+      <c r="ES61" s="19"/>
+      <c r="ET61" s="19"/>
+      <c r="EU61" s="19"/>
+      <c r="EV61" s="19"/>
+      <c r="EW61" s="19"/>
+      <c r="EX61" s="19"/>
+      <c r="EY61" s="19"/>
+      <c r="EZ61" s="19"/>
+      <c r="FA61" s="19"/>
+      <c r="FB61" s="19"/>
+      <c r="FC61" s="19"/>
+      <c r="FD61" s="19"/>
+      <c r="FE61" s="19"/>
+      <c r="FF61" s="19"/>
+      <c r="FG61" s="19"/>
+      <c r="FH61" s="19"/>
+      <c r="FI61" s="19"/>
+      <c r="FJ61" s="19"/>
+      <c r="FK61" s="19"/>
+      <c r="FL61" s="19"/>
+      <c r="FM61" s="19"/>
+      <c r="FN61" s="19"/>
+      <c r="FO61" s="19"/>
+      <c r="FP61" s="19"/>
+      <c r="FQ61" s="19"/>
+      <c r="FR61" s="19"/>
+      <c r="FS61" s="19"/>
+      <c r="FT61" s="19"/>
+      <c r="FU61" s="19"/>
+      <c r="FV61" s="19"/>
+      <c r="FW61" s="19"/>
+      <c r="FX61" s="19"/>
+      <c r="FY61" s="19"/>
+      <c r="FZ61" s="19"/>
+      <c r="GA61" s="19"/>
+      <c r="GB61" s="19"/>
+      <c r="GC61" s="19"/>
+      <c r="GD61" s="19"/>
+      <c r="GE61" s="19"/>
+      <c r="GF61" s="19"/>
+      <c r="GG61" s="19"/>
+      <c r="GH61" s="19"/>
+      <c r="GI61" s="19"/>
+      <c r="GJ61" s="19"/>
+      <c r="GK61" s="19"/>
+      <c r="GL61" s="19"/>
+      <c r="GM61" s="19"/>
+      <c r="GN61" s="19"/>
+      <c r="GO61" s="19"/>
+      <c r="GP61" s="19"/>
+      <c r="GQ61" s="19"/>
+      <c r="GR61" s="19"/>
+      <c r="GS61" s="19"/>
+      <c r="GT61" s="19"/>
+      <c r="GU61" s="19"/>
+      <c r="GV61" s="19"/>
+      <c r="GW61" s="19"/>
+      <c r="GX61" s="19"/>
+      <c r="GY61" s="19"/>
+      <c r="GZ61" s="19"/>
+      <c r="HA61" s="19"/>
+      <c r="HB61" s="19"/>
+      <c r="HC61" s="19"/>
+      <c r="HD61" s="19"/>
+      <c r="HE61" s="19"/>
+      <c r="HF61" s="19"/>
+      <c r="HG61" s="19"/>
+      <c r="HH61" s="19"/>
+      <c r="HI61" s="19"/>
+      <c r="HJ61" s="19"/>
+      <c r="HK61" s="19"/>
+      <c r="HL61" s="19"/>
+      <c r="HM61" s="19"/>
+      <c r="HN61" s="19"/>
+      <c r="HO61" s="19"/>
+      <c r="HP61" s="19"/>
+      <c r="HQ61" s="19"/>
+      <c r="HR61" s="19"/>
+      <c r="HS61" s="19"/>
+      <c r="HT61" s="19"/>
+      <c r="HU61" s="19"/>
+      <c r="HV61" s="19"/>
+      <c r="HW61" s="19"/>
+      <c r="HX61" s="19"/>
+      <c r="HY61" s="19"/>
+      <c r="HZ61" s="19"/>
+      <c r="IA61" s="19"/>
+      <c r="IB61" s="19"/>
+      <c r="IC61" s="19"/>
+      <c r="ID61" s="19"/>
+      <c r="IE61" s="19"/>
+      <c r="IF61" s="19"/>
+      <c r="IG61" s="19"/>
+      <c r="IH61" s="19"/>
+      <c r="II61" s="19"/>
+      <c r="IJ61" s="19"/>
+      <c r="IK61" s="19"/>
+      <c r="IL61" s="19"/>
+      <c r="IM61" s="19"/>
+      <c r="IN61" s="19"/>
+      <c r="IO61" s="19"/>
+      <c r="IP61" s="19"/>
+      <c r="IQ61" s="19"/>
+    </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="AH1:AO1"/>
-    <mergeCell ref="J1:N1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="U1:X1"/>
-    <mergeCell ref="Z1:AF1"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
+    <mergeCell ref="AH1:AO1"/>
+    <mergeCell ref="J1:N1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="U1:X1"/>
+    <mergeCell ref="Z1:AF1"/>
   </mergeCells>
-  <conditionalFormatting sqref="G4:IQ56">
+  <conditionalFormatting sqref="G4:IQ61">
     <cfRule type="expression" dxfId="17" priority="212">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -16993,7 +18363,7 @@
       <formula>G$2=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A57:BN57">
+  <conditionalFormatting sqref="A62:BN62">
     <cfRule type="expression" dxfId="11" priority="213">
       <formula>TRUE</formula>
     </cfRule>
@@ -17003,52 +18373,52 @@
       <formula>G$2=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BO57:CL57">
+  <conditionalFormatting sqref="BO62:CL62">
     <cfRule type="expression" dxfId="9" priority="203">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CM57:DJ57">
+  <conditionalFormatting sqref="CM62:DJ62">
     <cfRule type="expression" dxfId="8" priority="193">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DK57:EH57">
+  <conditionalFormatting sqref="DK62:EH62">
     <cfRule type="expression" dxfId="7" priority="183">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="EI57:FF57">
+  <conditionalFormatting sqref="EI62:FF62">
     <cfRule type="expression" dxfId="6" priority="173">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="FG57:FN57">
+  <conditionalFormatting sqref="FG62:FN62">
     <cfRule type="expression" dxfId="5" priority="163">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="FO57:GL57">
+  <conditionalFormatting sqref="FO62:GL62">
     <cfRule type="expression" dxfId="4" priority="153">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="GM57:HJ57">
+  <conditionalFormatting sqref="GM62:HJ62">
     <cfRule type="expression" dxfId="3" priority="143">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="HK57:HR57">
+  <conditionalFormatting sqref="HK62:HR62">
     <cfRule type="expression" dxfId="2" priority="133">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="HS57:IP57">
+  <conditionalFormatting sqref="HS62:IP62">
     <cfRule type="expression" dxfId="1" priority="123">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="IQ57">
+  <conditionalFormatting sqref="IQ62">
     <cfRule type="expression" dxfId="0" priority="113">
       <formula>TRUE</formula>
     </cfRule>
@@ -17065,7 +18435,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup scale="12" orientation="landscape" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <pageSetup scale="10" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
   <headerFooter differentFirst="1">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>

--- a/Docs/InterimReport/Gantt Chart.xlsx
+++ b/Docs/InterimReport/Gantt Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitRepos\Uni\Thesis\Docs\InterimReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB19AE5-7544-43D3-AAC2-F912874F27DA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51FEE479-8F23-4A53-A631-DA00BEAB9ABE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -565,9 +565,6 @@
     <t>Time dilation research and prototype</t>
   </si>
   <si>
-    <t>COMPUTER VISION</t>
-  </si>
-  <si>
     <t>Python vs C++ research</t>
   </si>
   <si>
@@ -662,6 +659,9 @@
   </si>
   <si>
     <t>AS AT 24 MAY 19</t>
+  </si>
+  <si>
+    <t>COMPUTER VISION BASICS</t>
   </si>
 </sst>
 </file>
@@ -1101,6 +1101,12 @@
     <xf numFmtId="0" fontId="11" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1108,12 +1114,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1596,8 +1596,8 @@
   <dimension ref="A1:IQ61"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AF12" sqref="AF12"/>
+      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1616,8 +1616,8 @@
       <c r="A1" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="32" t="s">
-        <v>206</v>
+      <c r="B1" s="28" t="s">
+        <v>205</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>1</v>
@@ -1626,67 +1626,67 @@
         <v>13</v>
       </c>
       <c r="I1" s="9"/>
-      <c r="J1" s="28" t="s">
+      <c r="J1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="30"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="32"/>
       <c r="O1" s="10"/>
-      <c r="P1" s="28" t="s">
+      <c r="P1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="30"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="32"/>
       <c r="T1" s="11"/>
-      <c r="U1" s="28" t="s">
+      <c r="U1" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="V1" s="29"/>
-      <c r="W1" s="29"/>
-      <c r="X1" s="30"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="32"/>
       <c r="Y1" s="12"/>
-      <c r="Z1" s="28" t="s">
+      <c r="Z1" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="AA1" s="29"/>
-      <c r="AB1" s="29"/>
-      <c r="AC1" s="29"/>
-      <c r="AD1" s="29"/>
-      <c r="AE1" s="29"/>
-      <c r="AF1" s="30"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="32"/>
       <c r="AG1" s="13"/>
-      <c r="AH1" s="28" t="s">
+      <c r="AH1" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="AI1" s="29"/>
-      <c r="AJ1" s="29"/>
-      <c r="AK1" s="29"/>
-      <c r="AL1" s="29"/>
-      <c r="AM1" s="29"/>
-      <c r="AN1" s="29"/>
-      <c r="AO1" s="29"/>
+      <c r="AI1" s="31"/>
+      <c r="AJ1" s="31"/>
+      <c r="AK1" s="31"/>
+      <c r="AL1" s="31"/>
+      <c r="AM1" s="31"/>
+      <c r="AN1" s="31"/>
+      <c r="AO1" s="31"/>
       <c r="AQ1" s="24"/>
     </row>
     <row r="2" spans="1:251" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="29" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="14">
@@ -2426,12 +2426,12 @@
       </c>
     </row>
     <row r="3" spans="1:251" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
       <c r="G3" s="16">
         <v>43521</v>
       </c>
@@ -3263,7 +3263,7 @@
     </row>
     <row r="4" spans="1:251" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B4" s="22">
         <f>MIN(B5:B9)</f>
@@ -3282,7 +3282,7 @@
         <v>12</v>
       </c>
       <c r="F4" s="23">
-        <f>(F5*C5+F6*C6+F7*C7+F8*C8+F9*C9)/SUM(C5:C8)</f>
+        <f>(F5*C5+F6*C6+F7*C7+F8*C8+F9*C9)/SUM(C5:C9)</f>
         <v>1</v>
       </c>
       <c r="G4" s="15"/>
@@ -4608,7 +4608,7 @@
         <v>3</v>
       </c>
       <c r="F9" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
@@ -6178,7 +6178,7 @@
     </row>
     <row r="15" spans="1:251" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B15" s="3">
         <v>13</v>
@@ -6443,13 +6443,16 @@
     </row>
     <row r="16" spans="1:251" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B16" s="3">
         <v>14</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0</v>
       </c>
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
@@ -6699,13 +6702,16 @@
     </row>
     <row r="17" spans="1:251" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B17" s="3">
         <v>14</v>
       </c>
       <c r="C17" s="1">
         <v>6</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0</v>
       </c>
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
@@ -6955,13 +6961,16 @@
     </row>
     <row r="18" spans="1:251" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B18" s="3">
         <v>26</v>
       </c>
       <c r="C18" s="1">
         <v>2</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0</v>
       </c>
       <c r="G18" s="15"/>
       <c r="H18" s="15"/>
@@ -7463,7 +7472,7 @@
     </row>
     <row r="20" spans="1:251" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
-        <v>174</v>
+        <v>206</v>
       </c>
       <c r="B20" s="22">
         <f>MIN(B21:B25)</f>
@@ -7483,7 +7492,7 @@
       </c>
       <c r="F20" s="23">
         <f>(F21*C21+F22*C22+F23*C23+F24*C24+F25*C25)/SUM(C21:C25)</f>
-        <v>0.58333333333333337</v>
+        <v>1</v>
       </c>
       <c r="G20" s="15"/>
       <c r="H20" s="15"/>
@@ -7733,7 +7742,7 @@
     </row>
     <row r="21" spans="1:251" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B21" s="1">
         <v>3</v>
@@ -7998,7 +8007,7 @@
     </row>
     <row r="22" spans="1:251" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B22" s="1">
         <v>3</v>
@@ -8263,7 +8272,7 @@
     </row>
     <row r="23" spans="1:251" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B23" s="1">
         <v>5</v>
@@ -8528,7 +8537,7 @@
     </row>
     <row r="24" spans="1:251" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B24" s="3">
         <v>4</v>
@@ -8543,7 +8552,7 @@
         <v>3</v>
       </c>
       <c r="F24" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
@@ -8793,7 +8802,7 @@
     </row>
     <row r="25" spans="1:251" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B25" s="3">
         <v>7</v>
@@ -8808,7 +8817,7 @@
         <v>3</v>
       </c>
       <c r="F25" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" s="15"/>
       <c r="H25" s="15"/>
@@ -9307,7 +9316,7 @@
     </row>
     <row r="27" spans="1:251" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B27" s="22">
         <f>MIN(B28:B32)</f>
@@ -9577,7 +9586,7 @@
     </row>
     <row r="28" spans="1:251" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B28" s="3">
         <v>7</v>
@@ -9842,7 +9851,7 @@
     </row>
     <row r="29" spans="1:251" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B29" s="3">
         <v>9</v>
@@ -10107,7 +10116,7 @@
     </row>
     <row r="30" spans="1:251" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B30" s="3">
         <v>11</v>
@@ -10372,7 +10381,7 @@
     </row>
     <row r="31" spans="1:251" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B31" s="3">
         <v>14</v>
@@ -10631,7 +10640,7 @@
     </row>
     <row r="32" spans="1:251" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B32" s="3">
         <v>16</v>
@@ -10891,9 +10900,6 @@
     <row r="33" spans="1:251" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="3"/>
-      <c r="F33" s="5">
-        <v>0</v>
-      </c>
       <c r="G33" s="15"/>
       <c r="H33" s="15"/>
       <c r="I33" s="15"/>
@@ -11142,7 +11148,7 @@
     </row>
     <row r="34" spans="1:251" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B34" s="22">
         <f>MIN(B35:B39)</f>
@@ -11412,7 +11418,7 @@
     </row>
     <row r="35" spans="1:251" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B35" s="1">
         <v>3</v>
@@ -11677,7 +11683,7 @@
     </row>
     <row r="36" spans="1:251" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B36" s="1">
         <v>10</v>
@@ -11942,7 +11948,7 @@
     </row>
     <row r="37" spans="1:251" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B37" s="1">
         <v>15</v>
@@ -12201,7 +12207,7 @@
     </row>
     <row r="38" spans="1:251" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B38" s="1">
         <v>20</v>
@@ -12460,7 +12466,7 @@
     </row>
     <row r="39" spans="1:251" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B39" s="1">
         <v>24</v>
@@ -12719,13 +12725,16 @@
     </row>
     <row r="40" spans="1:251" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B40" s="1">
         <v>26</v>
       </c>
       <c r="C40" s="1">
         <v>4</v>
+      </c>
+      <c r="F40" s="5">
+        <v>0</v>
       </c>
       <c r="G40" s="15"/>
       <c r="H40" s="15"/>
@@ -12975,13 +12984,16 @@
     </row>
     <row r="41" spans="1:251" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B41" s="1">
         <v>30</v>
       </c>
       <c r="C41" s="1">
         <v>2</v>
+      </c>
+      <c r="F41" s="5">
+        <v>0</v>
       </c>
       <c r="G41" s="15"/>
       <c r="H41" s="15"/>
@@ -13231,9 +13243,6 @@
     </row>
     <row r="42" spans="1:251" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
-      <c r="F42" s="5">
-        <v>0</v>
-      </c>
       <c r="G42" s="15"/>
       <c r="H42" s="15"/>
       <c r="I42" s="15"/>
@@ -13482,7 +13491,7 @@
     </row>
     <row r="43" spans="1:251" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B43" s="22">
         <f>MIN(B44:B48)</f>
@@ -13752,7 +13761,7 @@
     </row>
     <row r="44" spans="1:251" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B44" s="1">
         <v>11</v>
@@ -14017,7 +14026,7 @@
     </row>
     <row r="45" spans="1:251" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B45" s="1">
         <v>12</v>
@@ -14282,7 +14291,7 @@
     </row>
     <row r="46" spans="1:251" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B46" s="1">
         <v>32</v>
@@ -14541,7 +14550,7 @@
     </row>
     <row r="47" spans="1:251" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B47" s="1">
         <v>32</v>
@@ -14800,7 +14809,7 @@
     </row>
     <row r="48" spans="1:251" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B48" s="1">
         <v>34</v>
@@ -15059,7 +15068,7 @@
     </row>
     <row r="49" spans="1:251" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B49" s="1">
         <v>30</v>
@@ -15318,9 +15327,6 @@
     </row>
     <row r="50" spans="1:251" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
-      <c r="F50" s="5">
-        <v>0</v>
-      </c>
       <c r="G50" s="15"/>
       <c r="H50" s="15"/>
       <c r="I50" s="15"/>
@@ -15569,9 +15575,6 @@
     </row>
     <row r="51" spans="1:251" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
-      <c r="F51" s="5">
-        <v>0</v>
-      </c>
       <c r="G51" s="15"/>
       <c r="H51" s="15"/>
       <c r="I51" s="15"/>
@@ -15820,9 +15823,6 @@
     </row>
     <row r="52" spans="1:251" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
-      <c r="F52" s="5">
-        <v>0</v>
-      </c>
       <c r="G52" s="15"/>
       <c r="H52" s="15"/>
       <c r="I52" s="15"/>
@@ -16071,9 +16071,6 @@
     </row>
     <row r="53" spans="1:251" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
-      <c r="F53" s="5">
-        <v>0</v>
-      </c>
       <c r="G53" s="15"/>
       <c r="H53" s="15"/>
       <c r="I53" s="15"/>
@@ -16322,9 +16319,6 @@
     </row>
     <row r="54" spans="1:251" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
-      <c r="F54" s="5">
-        <v>0</v>
-      </c>
       <c r="G54" s="15"/>
       <c r="H54" s="15"/>
       <c r="I54" s="15"/>
@@ -16573,9 +16567,6 @@
     </row>
     <row r="55" spans="1:251" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
-      <c r="F55" s="5">
-        <v>0</v>
-      </c>
       <c r="G55" s="15"/>
       <c r="H55" s="15"/>
       <c r="I55" s="15"/>
@@ -16824,9 +16815,6 @@
     </row>
     <row r="56" spans="1:251" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
-      <c r="F56" s="5">
-        <v>0</v>
-      </c>
       <c r="G56" s="15"/>
       <c r="H56" s="15"/>
       <c r="I56" s="15"/>
@@ -17075,9 +17063,6 @@
     </row>
     <row r="57" spans="1:251" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
-      <c r="F57" s="5">
-        <v>0</v>
-      </c>
       <c r="G57" s="15"/>
       <c r="H57" s="15"/>
       <c r="I57" s="15"/>
@@ -17326,9 +17311,6 @@
     </row>
     <row r="58" spans="1:251" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
-      <c r="F58" s="5">
-        <v>0</v>
-      </c>
       <c r="G58" s="15"/>
       <c r="H58" s="15"/>
       <c r="I58" s="15"/>
@@ -17578,9 +17560,6 @@
     <row r="59" spans="1:251" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="3"/>
-      <c r="F59" s="5">
-        <v>0</v>
-      </c>
       <c r="G59" s="15"/>
       <c r="H59" s="15"/>
       <c r="I59" s="15"/>
@@ -17829,9 +17808,6 @@
     </row>
     <row r="60" spans="1:251" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
-      <c r="F60" s="5">
-        <v>0</v>
-      </c>
       <c r="G60" s="15"/>
       <c r="H60" s="15"/>
       <c r="I60" s="15"/>
@@ -18080,9 +18056,6 @@
     </row>
     <row r="61" spans="1:251" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
-      <c r="F61" s="5">
-        <v>0</v>
-      </c>
       <c r="G61" s="15"/>
       <c r="H61" s="15"/>
       <c r="I61" s="15"/>
@@ -18331,17 +18304,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="AH1:AO1"/>
+    <mergeCell ref="J1:N1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="U1:X1"/>
+    <mergeCell ref="Z1:AF1"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
-    <mergeCell ref="AH1:AO1"/>
-    <mergeCell ref="J1:N1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="U1:X1"/>
-    <mergeCell ref="Z1:AF1"/>
   </mergeCells>
   <conditionalFormatting sqref="G4:IQ61">
     <cfRule type="expression" dxfId="17" priority="212">

--- a/Docs/InterimReport/Gantt Chart.xlsx
+++ b/Docs/InterimReport/Gantt Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitRepos\Uni\Thesis\Docs\InterimReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51FEE479-8F23-4A53-A631-DA00BEAB9ABE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F1668D7-93D1-4A2A-9757-9DAD3BAACBC7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1104,9 +1104,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1115,6 +1112,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1596,8 +1596,8 @@
   <dimension ref="A1:IQ61"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D52" sqref="D52"/>
+      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1623,70 +1623,70 @@
         <v>1</v>
       </c>
       <c r="G1" s="8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I1" s="9"/>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="32"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="31"/>
       <c r="O1" s="10"/>
-      <c r="P1" s="30" t="s">
+      <c r="P1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="32"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="31"/>
       <c r="T1" s="11"/>
-      <c r="U1" s="30" t="s">
+      <c r="U1" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="32"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="31"/>
       <c r="Y1" s="12"/>
-      <c r="Z1" s="30" t="s">
+      <c r="Z1" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="31"/>
-      <c r="AC1" s="31"/>
-      <c r="AD1" s="31"/>
-      <c r="AE1" s="31"/>
-      <c r="AF1" s="32"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30"/>
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="30"/>
+      <c r="AF1" s="31"/>
       <c r="AG1" s="13"/>
-      <c r="AH1" s="30" t="s">
+      <c r="AH1" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="AI1" s="31"/>
-      <c r="AJ1" s="31"/>
-      <c r="AK1" s="31"/>
-      <c r="AL1" s="31"/>
-      <c r="AM1" s="31"/>
-      <c r="AN1" s="31"/>
-      <c r="AO1" s="31"/>
+      <c r="AI1" s="30"/>
+      <c r="AJ1" s="30"/>
+      <c r="AK1" s="30"/>
+      <c r="AL1" s="30"/>
+      <c r="AM1" s="30"/>
+      <c r="AN1" s="30"/>
+      <c r="AO1" s="30"/>
       <c r="AQ1" s="24"/>
     </row>
     <row r="2" spans="1:251" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="32" t="s">
         <v>159</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="32" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="14">
@@ -2426,12 +2426,12 @@
       </c>
     </row>
     <row r="3" spans="1:251" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
       <c r="G3" s="16">
         <v>43521</v>
       </c>
@@ -5131,7 +5131,7 @@
       </c>
       <c r="F11" s="23">
         <f>(F12*C12+F13*C13+F14*C14)/SUM(C12:C14)</f>
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
@@ -5396,7 +5396,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
@@ -6451,6 +6451,9 @@
       <c r="C16" s="1">
         <v>1</v>
       </c>
+      <c r="D16" s="1">
+        <v>15</v>
+      </c>
       <c r="F16" s="5">
         <v>0</v>
       </c>
@@ -6709,6 +6712,9 @@
       </c>
       <c r="C17" s="1">
         <v>6</v>
+      </c>
+      <c r="D17" s="1">
+        <v>15</v>
       </c>
       <c r="F17" s="5">
         <v>0</v>
@@ -9332,11 +9338,11 @@
       </c>
       <c r="E27" s="22">
         <f>SUM(E28:E32)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F27" s="23">
         <f>(F28*C28+F29*C29+F30*C30)/SUM(C28:C30)</f>
-        <v>0.8928571428571429</v>
+        <v>0.93571428571428572</v>
       </c>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
@@ -10128,10 +10134,10 @@
         <v>11</v>
       </c>
       <c r="E30" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F30" s="5">
-        <v>0.75</v>
+        <v>0.85</v>
       </c>
       <c r="G30" s="15"/>
       <c r="H30" s="15"/>
@@ -10388,6 +10394,9 @@
       </c>
       <c r="C31" s="1">
         <v>2</v>
+      </c>
+      <c r="D31" s="1">
+        <v>15</v>
       </c>
       <c r="F31" s="5">
         <v>0</v>
@@ -18304,17 +18313,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="AH1:AO1"/>
-    <mergeCell ref="J1:N1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="U1:X1"/>
-    <mergeCell ref="Z1:AF1"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
+    <mergeCell ref="AH1:AO1"/>
+    <mergeCell ref="J1:N1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="U1:X1"/>
+    <mergeCell ref="Z1:AF1"/>
   </mergeCells>
   <conditionalFormatting sqref="G4:IQ61">
     <cfRule type="expression" dxfId="17" priority="212">

--- a/Docs/InterimReport/Gantt Chart.xlsx
+++ b/Docs/InterimReport/Gantt Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitRepos\Uni\Thesis\Docs\InterimReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F1668D7-93D1-4A2A-9757-9DAD3BAACBC7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DBAA3BA-9300-4CAF-87DC-6BC150E07B42}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -658,10 +658,10 @@
     <t>Consolodation of output visualisation products</t>
   </si>
   <si>
-    <t>AS AT 24 MAY 19</t>
-  </si>
-  <si>
     <t>COMPUTER VISION BASICS</t>
+  </si>
+  <si>
+    <t>AS AT 30 MAY 19</t>
   </si>
 </sst>
 </file>
@@ -1596,8 +1596,8 @@
   <dimension ref="A1:IQ61"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D46" sqref="D46"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AP49" sqref="A1:AP49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1617,7 +1617,7 @@
         <v>165</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>1</v>
@@ -5127,7 +5127,7 @@
       </c>
       <c r="E11" s="22">
         <f>SUM(E12:E19)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F11" s="23">
         <f>(F12*C12+F13*C13+F14*C14)/SUM(C12:C14)</f>
@@ -6452,10 +6452,13 @@
         <v>1</v>
       </c>
       <c r="D16" s="1">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
       </c>
       <c r="F16" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
@@ -6714,7 +6717,7 @@
         <v>6</v>
       </c>
       <c r="D17" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F17" s="5">
         <v>0</v>
@@ -7478,7 +7481,7 @@
     </row>
     <row r="20" spans="1:251" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B20" s="22">
         <f>MIN(B21:B25)</f>
